--- a/db_structure/00A. System.xlsx
+++ b/db_structure/00A. System.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="250">
   <si>
     <t>Table Master</t>
   </si>
@@ -763,6 +763,9 @@
   </si>
   <si>
     <t>Control Number</t>
+  </si>
+  <si>
+    <t>Varchar</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1574,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,7 +2533,10 @@
         <v>140</v>
       </c>
       <c r="G51" t="s">
-        <v>141</v>
+        <v>249</v>
+      </c>
+      <c r="H51" s="2">
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">

--- a/db_structure/00A. System.xlsx
+++ b/db_structure/00A. System.xlsx
@@ -441,9 +441,6 @@
     <t>sysu_id</t>
   </si>
   <si>
-    <t>uniqueidentifier</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -766,6 +763,9 @@
   </si>
   <si>
     <t>Varchar</t>
+  </si>
+  <si>
+    <t>varchar 36</t>
   </si>
 </sst>
 </file>
@@ -1524,13 +1524,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E21" s="2">
         <v>29</v>
@@ -1541,13 +1541,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E22" s="2">
         <v>33</v>
@@ -1577,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,7 +1596,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>32</v>
@@ -1608,22 +1608,22 @@
         <v>64</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1631,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -2130,7 +2130,7 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
@@ -2210,7 +2210,7 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -2290,7 +2290,7 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C39" t="s">
         <v>30</v>
@@ -2503,7 +2503,7 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C50" t="s">
         <v>41</v>
@@ -2533,7 +2533,7 @@
         <v>140</v>
       </c>
       <c r="G51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H51" s="2">
         <v>36</v>
@@ -2545,10 +2545,10 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" t="s">
         <v>142</v>
-      </c>
-      <c r="F52" t="s">
-        <v>143</v>
       </c>
       <c r="G52" t="s">
         <v>70</v>
@@ -2560,10 +2560,10 @@
         <v>4</v>
       </c>
       <c r="E53" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" t="s">
         <v>144</v>
-      </c>
-      <c r="F53" t="s">
-        <v>145</v>
       </c>
       <c r="G53" t="s">
         <v>74</v>
@@ -2589,7 +2589,7 @@
         <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G54" t="s">
         <v>70</v>
@@ -2604,7 +2604,7 @@
         <v>88</v>
       </c>
       <c r="F55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G55" t="s">
         <v>74</v>
@@ -2622,7 +2622,7 @@
         <v>65</v>
       </c>
       <c r="F56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G56" t="s">
         <v>74</v>
@@ -2637,10 +2637,10 @@
         <v>4</v>
       </c>
       <c r="E57" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" t="s">
         <v>149</v>
-      </c>
-      <c r="F57" t="s">
-        <v>150</v>
       </c>
       <c r="G57" t="s">
         <v>74</v>
@@ -2655,10 +2655,10 @@
         <v>5</v>
       </c>
       <c r="E58" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" t="s">
         <v>151</v>
-      </c>
-      <c r="F58" t="s">
-        <v>152</v>
       </c>
       <c r="G58" t="s">
         <v>74</v>
@@ -2673,10 +2673,10 @@
         <v>6</v>
       </c>
       <c r="E59" t="s">
+        <v>152</v>
+      </c>
+      <c r="F59" t="s">
         <v>153</v>
-      </c>
-      <c r="F59" t="s">
-        <v>154</v>
       </c>
       <c r="G59" t="s">
         <v>74</v>
@@ -2694,7 +2694,7 @@
         <v>68</v>
       </c>
       <c r="F60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G60" t="s">
         <v>82</v>
@@ -2717,7 +2717,7 @@
         <v>62</v>
       </c>
       <c r="F61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G61" t="s">
         <v>70</v>
@@ -2729,10 +2729,10 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
+        <v>156</v>
+      </c>
+      <c r="F62" t="s">
         <v>157</v>
-      </c>
-      <c r="F62" t="s">
-        <v>158</v>
       </c>
       <c r="G62" t="s">
         <v>70</v>
@@ -2750,10 +2750,10 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
+        <v>158</v>
+      </c>
+      <c r="F63" t="s">
         <v>159</v>
-      </c>
-      <c r="F63" t="s">
-        <v>160</v>
       </c>
       <c r="G63" t="s">
         <v>70</v>
@@ -2771,10 +2771,10 @@
         <v>4</v>
       </c>
       <c r="E64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F64" t="s">
         <v>161</v>
-      </c>
-      <c r="F64" t="s">
-        <v>162</v>
       </c>
       <c r="G64" t="s">
         <v>80</v>
@@ -2786,10 +2786,10 @@
         <v>5</v>
       </c>
       <c r="E65" t="s">
+        <v>162</v>
+      </c>
+      <c r="F65" t="s">
         <v>163</v>
-      </c>
-      <c r="F65" t="s">
-        <v>164</v>
       </c>
       <c r="G65" t="s">
         <v>70</v>
@@ -2801,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="E66" t="s">
+        <v>164</v>
+      </c>
+      <c r="F66" t="s">
         <v>165</v>
-      </c>
-      <c r="F66" t="s">
-        <v>166</v>
       </c>
       <c r="G66" t="s">
         <v>70</v>
@@ -2827,7 +2827,7 @@
         <v>62</v>
       </c>
       <c r="F67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G67" t="s">
         <v>70</v>
@@ -2839,10 +2839,10 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
+        <v>167</v>
+      </c>
+      <c r="F68" t="s">
         <v>168</v>
-      </c>
-      <c r="F68" t="s">
-        <v>169</v>
       </c>
       <c r="G68" t="s">
         <v>70</v>
@@ -2851,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2863,7 +2863,7 @@
         <v>114</v>
       </c>
       <c r="F69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G69" t="s">
         <v>70</v>
@@ -2881,10 +2881,10 @@
         <v>4</v>
       </c>
       <c r="E70" t="s">
+        <v>171</v>
+      </c>
+      <c r="F70" t="s">
         <v>172</v>
-      </c>
-      <c r="F70" t="s">
-        <v>173</v>
       </c>
       <c r="G70" t="s">
         <v>70</v>
@@ -2896,10 +2896,10 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
+        <v>173</v>
+      </c>
+      <c r="F71" t="s">
         <v>174</v>
-      </c>
-      <c r="F71" t="s">
-        <v>175</v>
       </c>
       <c r="G71" t="s">
         <v>80</v>
@@ -2919,13 +2919,13 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
+        <v>175</v>
+      </c>
+      <c r="F72" t="s">
         <v>176</v>
       </c>
-      <c r="F72" t="s">
-        <v>177</v>
-      </c>
       <c r="G72" t="s">
-        <v>141</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -2937,10 +2937,10 @@
         <v>84</v>
       </c>
       <c r="F73" t="s">
+        <v>177</v>
+      </c>
+      <c r="G73" t="s">
         <v>178</v>
-      </c>
-      <c r="G73" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -2949,10 +2949,10 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G74" t="s">
         <v>70</v>
@@ -2964,16 +2964,16 @@
         <v>4</v>
       </c>
       <c r="E75" t="s">
+        <v>180</v>
+      </c>
+      <c r="F75" t="s">
         <v>181</v>
-      </c>
-      <c r="F75" t="s">
-        <v>182</v>
       </c>
       <c r="G75" t="s">
         <v>74</v>
       </c>
       <c r="H75" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -2993,7 +2993,7 @@
         <v>62</v>
       </c>
       <c r="F76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G76" t="s">
         <v>70</v>
@@ -3008,7 +3008,7 @@
         <v>137</v>
       </c>
       <c r="F77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G77" t="s">
         <v>80</v>
@@ -3020,10 +3020,10 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
+        <v>184</v>
+      </c>
+      <c r="F78" t="s">
         <v>185</v>
-      </c>
-      <c r="F78" t="s">
-        <v>186</v>
       </c>
       <c r="G78" t="s">
         <v>74</v>
@@ -3038,10 +3038,10 @@
         <v>4</v>
       </c>
       <c r="E79" t="s">
+        <v>186</v>
+      </c>
+      <c r="F79" t="s">
         <v>187</v>
-      </c>
-      <c r="F79" t="s">
-        <v>188</v>
       </c>
       <c r="G79" t="s">
         <v>74</v>
@@ -3056,10 +3056,10 @@
         <v>5</v>
       </c>
       <c r="E80" t="s">
+        <v>188</v>
+      </c>
+      <c r="F80" t="s">
         <v>189</v>
-      </c>
-      <c r="F80" t="s">
-        <v>190</v>
       </c>
       <c r="G80" t="s">
         <v>74</v>
@@ -3074,10 +3074,10 @@
         <v>6</v>
       </c>
       <c r="E81" t="s">
+        <v>190</v>
+      </c>
+      <c r="F81" t="s">
         <v>191</v>
-      </c>
-      <c r="F81" t="s">
-        <v>192</v>
       </c>
       <c r="G81" t="s">
         <v>74</v>
@@ -3092,10 +3092,10 @@
         <v>7</v>
       </c>
       <c r="E82" t="s">
+        <v>192</v>
+      </c>
+      <c r="F82" t="s">
         <v>193</v>
-      </c>
-      <c r="F82" t="s">
-        <v>194</v>
       </c>
       <c r="G82" t="s">
         <v>74</v>
@@ -3110,10 +3110,10 @@
         <v>8</v>
       </c>
       <c r="E83" t="s">
+        <v>194</v>
+      </c>
+      <c r="F83" t="s">
         <v>195</v>
-      </c>
-      <c r="F83" t="s">
-        <v>196</v>
       </c>
       <c r="G83" t="s">
         <v>74</v>
@@ -3139,7 +3139,7 @@
         <v>62</v>
       </c>
       <c r="F84" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G84" t="s">
         <v>70</v>
@@ -3151,10 +3151,10 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
+        <v>197</v>
+      </c>
+      <c r="F85" t="s">
         <v>198</v>
-      </c>
-      <c r="F85" t="s">
-        <v>199</v>
       </c>
       <c r="G85" t="s">
         <v>86</v>
@@ -3166,10 +3166,10 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
+        <v>199</v>
+      </c>
+      <c r="F86" t="s">
         <v>200</v>
-      </c>
-      <c r="F86" t="s">
-        <v>201</v>
       </c>
       <c r="G86" t="s">
         <v>86</v>
@@ -3192,7 +3192,7 @@
         <v>62</v>
       </c>
       <c r="F87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G87" t="s">
         <v>70</v>
@@ -3207,7 +3207,7 @@
         <v>64</v>
       </c>
       <c r="F88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G88" t="s">
         <v>70</v>
@@ -3219,10 +3219,10 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
+        <v>203</v>
+      </c>
+      <c r="F89" t="s">
         <v>204</v>
-      </c>
-      <c r="F89" t="s">
-        <v>205</v>
       </c>
       <c r="G89" t="s">
         <v>70</v>
@@ -3234,10 +3234,10 @@
         <v>4</v>
       </c>
       <c r="E90" t="s">
+        <v>205</v>
+      </c>
+      <c r="F90" t="s">
         <v>206</v>
-      </c>
-      <c r="F90" t="s">
-        <v>207</v>
       </c>
       <c r="G90" t="s">
         <v>70</v>
@@ -3249,10 +3249,10 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
+        <v>207</v>
+      </c>
+      <c r="F91" t="s">
         <v>208</v>
-      </c>
-      <c r="F91" t="s">
-        <v>209</v>
       </c>
       <c r="G91" t="s">
         <v>74</v>
@@ -3266,7 +3266,7 @@
         <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C92" t="s">
         <v>60</v>
@@ -3278,7 +3278,7 @@
         <v>62</v>
       </c>
       <c r="F92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G92" t="s">
         <v>70</v>
@@ -3293,7 +3293,7 @@
         <v>65</v>
       </c>
       <c r="F93" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G93" t="s">
         <v>74</v>
@@ -3308,10 +3308,10 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
+        <v>211</v>
+      </c>
+      <c r="F94" t="s">
         <v>212</v>
-      </c>
-      <c r="F94" t="s">
-        <v>213</v>
       </c>
       <c r="G94" t="s">
         <v>70</v>
@@ -3323,10 +3323,10 @@
         <v>4</v>
       </c>
       <c r="E95" t="s">
+        <v>213</v>
+      </c>
+      <c r="F95" t="s">
         <v>214</v>
-      </c>
-      <c r="F95" t="s">
-        <v>215</v>
       </c>
       <c r="G95" t="s">
         <v>70</v>
@@ -3337,10 +3337,10 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C97" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D97" s="7">
         <v>1</v>
@@ -3349,7 +3349,7 @@
         <v>62</v>
       </c>
       <c r="F97" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G97" t="s">
         <v>70</v>
@@ -3363,7 +3363,7 @@
         <v>65</v>
       </c>
       <c r="F98" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G98" t="s">
         <v>74</v>
@@ -3377,10 +3377,10 @@
         <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D100" s="7">
         <v>1</v>
@@ -3389,7 +3389,7 @@
         <v>62</v>
       </c>
       <c r="F100" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G100" t="s">
         <v>70</v>
@@ -3400,19 +3400,19 @@
         <v>2</v>
       </c>
       <c r="E101" t="s">
+        <v>234</v>
+      </c>
+      <c r="F101" t="s">
         <v>235</v>
       </c>
-      <c r="F101" t="s">
-        <v>236</v>
-      </c>
       <c r="G101" t="s">
         <v>70</v>
       </c>
       <c r="I101" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -3420,10 +3420,10 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G102" t="s">
         <v>70</v>
@@ -3437,7 +3437,7 @@
         <v>65</v>
       </c>
       <c r="F103" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G103" t="s">
         <v>74</v>
@@ -3470,13 +3470,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3484,21 +3484,21 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3506,10 +3506,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3517,10 +3517,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3528,10 +3528,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3539,10 +3539,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/db_structure/00A. System.xlsx
+++ b/db_structure/00A. System.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CCF4D234-A1F8-48A0-8B2E-7B82522664C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10710" yWindow="-270" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="10710" yWindow="-270" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="264">
   <si>
     <t>Table Master</t>
   </si>
@@ -766,13 +767,55 @@
   </si>
   <si>
     <t>varchar 36</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done </t>
+  </si>
+  <si>
+    <t>New Version mysql</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>no need</t>
+  </si>
+  <si>
+    <t>No Need</t>
+  </si>
+  <si>
+    <t>Data clean from Table</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>SP Status</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created </t>
+  </si>
+  <si>
+    <t>tested</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,15 +830,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -805,6 +841,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,7 +869,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -840,7 +888,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1180,11 +1239,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,9 +1252,11 @@
     <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -1211,40 +1272,64 @@
       <c r="E1" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="F1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="F2" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1260,25 +1345,46 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="F4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1294,8 +1400,20 @@
       <c r="E6" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1311,8 +1429,20 @@
       <c r="E7" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1328,8 +1458,20 @@
       <c r="E8" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1345,8 +1487,20 @@
       <c r="E9" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1362,40 +1516,67 @@
       <c r="E10" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="F10" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="F11" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1411,8 +1592,20 @@
       <c r="E13" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1426,8 +1619,20 @@
         <v>44</v>
       </c>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1441,8 +1646,17 @@
         <v>47</v>
       </c>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1456,8 +1670,14 @@
         <v>50</v>
       </c>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>256</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1471,8 +1691,14 @@
         <v>53</v>
       </c>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1486,8 +1712,14 @@
         <v>56</v>
       </c>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1500,8 +1732,14 @@
       <c r="D19" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1517,9 +1755,17 @@
       <c r="E20" s="2">
         <v>30</v>
       </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1535,8 +1781,17 @@
       <c r="E21" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1552,20 +1807,29 @@
       <c r="E22" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" s="2"/>
     </row>
   </sheetData>
@@ -1574,11 +1838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3332,6 +3596,7 @@
         <v>70</v>
       </c>
     </row>
+    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>20</v>
@@ -3453,10 +3718,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>

--- a/db_structure/00A. System.xlsx
+++ b/db_structure/00A. System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CCF4D234-A1F8-48A0-8B2E-7B82522664C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4FE5183D-D1FA-4F7A-819B-3289944D4802}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10710" yWindow="-270" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -831,7 +831,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,6 +856,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -869,7 +875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -902,6 +908,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,7 +1250,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1293,7 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1333,7 +1340,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
@@ -1362,7 +1369,7 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1388,7 +1395,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
@@ -1533,7 +1540,7 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -1580,7 +1587,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
@@ -1609,7 +1616,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
@@ -1702,7 +1709,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C18" t="s">
@@ -1723,7 +1730,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C19" t="s">
@@ -1743,7 +1750,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
@@ -1769,7 +1776,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="14" t="s">
         <v>227</v>
       </c>
       <c r="C21" t="s">
@@ -1795,7 +1802,7 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="14" t="s">
         <v>228</v>
       </c>
       <c r="C22" t="s">

--- a/db_structure/00A. System.xlsx
+++ b/db_structure/00A. System.xlsx
@@ -3,21 +3,55 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4FE5183D-D1FA-4F7A-819B-3289944D4802}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F3B257FD-EC19-4834-85A2-9F4DD03694BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10710" yWindow="-270" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10710" yWindow="-270" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Details" sheetId="21" r:id="rId2"/>
     <sheet name="Common Types" sheetId="22" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="K100" authorId="0" shapeId="0" xr:uid="{5CF3DDCF-CFC6-4A96-984D-CCF3A67CF568}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TEST SHOULD BE DONE</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="275">
   <si>
     <t>Table Master</t>
   </si>
@@ -301,9 +335,6 @@
     <t>user_cha_flag</t>
   </si>
   <si>
-    <t>varbinary</t>
-  </si>
-  <si>
     <t>user_a_flg</t>
   </si>
   <si>
@@ -809,13 +840,49 @@
   </si>
   <si>
     <t>tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular Form </t>
+  </si>
+  <si>
+    <t>a30</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>Angular Form Done</t>
+  </si>
+  <si>
+    <t>a9</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a12</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>A33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,8 +897,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,6 +942,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -875,7 +961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -909,6 +995,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1247,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1353,7 @@
     <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -1280,16 +1370,19 @@
         <v>36</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1306,16 +1399,22 @@
         <v>4</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>251</v>
-      </c>
       <c r="H2" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1330,13 +1429,13 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1353,19 +1452,25 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" t="s">
         <v>250</v>
       </c>
-      <c r="G4" t="s">
-        <v>251</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1382,16 +1487,22 @@
         <v>5</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1408,23 +1519,23 @@
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
@@ -1437,23 +1548,23 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
@@ -1466,19 +1577,19 @@
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1495,19 +1606,19 @@
         <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1524,19 +1635,19 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1553,16 +1664,22 @@
         <v>11</v>
       </c>
       <c r="F11" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>251</v>
-      </c>
       <c r="H11" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1577,13 +1694,13 @@
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1600,19 +1717,25 @@
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1627,19 +1750,19 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1654,16 +1777,16 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1678,13 +1801,13 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1699,13 +1822,13 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1720,13 +1843,13 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1740,13 +1863,13 @@
         <v>59</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1763,80 +1886,92 @@
         <v>30</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E21" s="2">
         <v>29</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E22" s="2">
         <v>33</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="H22" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E31" s="2"/>
     </row>
   </sheetData>
@@ -1845,11 +1980,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,11 +1998,12 @@
     <col min="8" max="8" width="14.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>32</v>
@@ -1879,30 +2015,33 @@
         <v>64</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>169</v>
+      <c r="B2" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1919,8 +2058,11 @@
       <c r="G2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="D3" s="7">
         <v>2</v>
@@ -1935,7 +2077,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="D4" s="7">
         <v>3</v>
@@ -1950,7 +2092,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="D5" s="7">
         <v>4</v>
@@ -1968,7 +2110,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="D6" s="7">
         <v>5</v>
@@ -1986,7 +2128,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="D7" s="7">
         <v>6</v>
@@ -2004,7 +2146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="D8" s="7">
         <v>7</v>
@@ -2022,7 +2164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="D9" s="7">
         <v>8</v>
@@ -2037,7 +2179,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="D10" s="7">
         <v>9</v>
@@ -2052,10 +2194,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -2078,7 +2220,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="D13" s="7">
         <v>2</v>
@@ -2093,11 +2235,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
@@ -2115,8 +2257,11 @@
       <c r="G14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="D15" s="7">
         <v>2</v>
@@ -2134,7 +2279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="D16" s="7">
         <v>3</v>
@@ -2152,7 +2297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="D17" s="7">
         <v>4</v>
@@ -2164,10 +2309,13 @@
         <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="H17" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="D18" s="7">
         <v>5</v>
@@ -2176,17 +2324,17 @@
         <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="s">
@@ -2199,22 +2347,25 @@
         <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="D20" s="7">
         <v>2</v>
       </c>
       <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
         <v>97</v>
-      </c>
-      <c r="F20" t="s">
-        <v>98</v>
       </c>
       <c r="G20" t="s">
         <v>70</v>
@@ -2226,7 +2377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="D21" s="7">
         <v>3</v>
@@ -2235,13 +2386,13 @@
         <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="D22" s="7">
         <v>4</v>
@@ -2250,7 +2401,7 @@
         <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
         <v>74</v>
@@ -2259,22 +2410,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="D23" s="7">
         <v>5</v>
       </c>
       <c r="E23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" t="s">
         <v>102</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>103</v>
       </c>
-      <c r="G23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="D24" s="7">
         <v>6</v>
@@ -2283,13 +2434,13 @@
         <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>5</v>
       </c>
@@ -2306,22 +2457,22 @@
         <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="D26" s="7">
         <v>2</v>
       </c>
       <c r="E26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" t="s">
         <v>107</v>
-      </c>
-      <c r="F26" t="s">
-        <v>108</v>
       </c>
       <c r="G26" t="s">
         <v>70</v>
@@ -2333,7 +2484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="D27" s="7">
         <v>3</v>
@@ -2342,13 +2493,13 @@
         <v>64</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="D28" s="7">
         <v>4</v>
@@ -2357,7 +2508,7 @@
         <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G28" t="s">
         <v>74</v>
@@ -2366,22 +2517,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="D29" s="7">
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="D30" s="7">
         <v>6</v>
@@ -2390,18 +2541,18 @@
         <v>68</v>
       </c>
       <c r="F30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G30" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
-        <v>215</v>
+      <c r="B31" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
@@ -2413,22 +2564,25 @@
         <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G31" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="D32" s="7">
         <v>2</v>
       </c>
       <c r="E32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" t="s">
         <v>114</v>
-      </c>
-      <c r="F32" t="s">
-        <v>115</v>
       </c>
       <c r="G32" t="s">
         <v>70</v>
@@ -2440,16 +2594,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="D33" s="7">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G33" t="s">
         <v>70</v>
@@ -2461,27 +2615,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="D34" s="7">
         <v>4</v>
       </c>
       <c r="E34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" t="s">
         <v>117</v>
-      </c>
-      <c r="F34" t="s">
-        <v>118</v>
       </c>
       <c r="G34" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>7</v>
       </c>
-      <c r="B35" t="s">
-        <v>216</v>
+      <c r="B35" s="15" t="s">
+        <v>215</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -2493,22 +2647,25 @@
         <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G35" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="D36" s="7">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G36" t="s">
         <v>70</v>
@@ -2520,16 +2677,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="D37" s="7">
         <v>3</v>
       </c>
       <c r="E37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" t="s">
         <v>121</v>
-      </c>
-      <c r="F37" t="s">
-        <v>122</v>
       </c>
       <c r="G37" t="s">
         <v>70</v>
@@ -2541,27 +2698,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="D38" s="7">
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G38" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C39" t="s">
         <v>30</v>
@@ -2573,22 +2730,22 @@
         <v>62</v>
       </c>
       <c r="F39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="D40" s="7">
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G40" t="s">
         <v>70</v>
@@ -2600,16 +2757,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="D41" s="7">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G41" t="s">
         <v>70</v>
@@ -2621,7 +2778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>9</v>
       </c>
@@ -2638,37 +2795,37 @@
         <v>62</v>
       </c>
       <c r="F42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="D43" s="7">
         <v>2</v>
       </c>
       <c r="E43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" t="s">
         <v>128</v>
       </c>
-      <c r="F43" t="s">
-        <v>129</v>
-      </c>
       <c r="G43" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="D44" s="7">
         <v>3</v>
       </c>
       <c r="E44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" t="s">
         <v>130</v>
-      </c>
-      <c r="F44" t="s">
-        <v>131</v>
       </c>
       <c r="G44" t="s">
         <v>74</v>
@@ -2677,16 +2834,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="D45" s="7">
         <v>4</v>
       </c>
       <c r="E45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" t="s">
         <v>132</v>
-      </c>
-      <c r="F45" t="s">
-        <v>133</v>
       </c>
       <c r="G45" t="s">
         <v>74</v>
@@ -2695,11 +2852,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>10</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C46" t="s">
@@ -2712,13 +2869,16 @@
         <v>62</v>
       </c>
       <c r="F46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G46" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="D47" s="7">
         <v>2</v>
@@ -2727,7 +2887,7 @@
         <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G47" t="s">
         <v>74</v>
@@ -2736,7 +2896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="D48" s="7">
         <v>3</v>
@@ -2745,7 +2905,7 @@
         <v>65</v>
       </c>
       <c r="F48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G48" t="s">
         <v>74</v>
@@ -2754,7 +2914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="D49" s="7">
         <v>4</v>
@@ -2763,18 +2923,18 @@
         <v>68</v>
       </c>
       <c r="F49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C50" t="s">
         <v>41</v>
@@ -2783,58 +2943,58 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" t="s">
         <v>137</v>
-      </c>
-      <c r="F50" t="s">
-        <v>138</v>
       </c>
       <c r="G50" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="D51" s="7">
         <v>2</v>
       </c>
       <c r="E51" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" t="s">
         <v>139</v>
       </c>
-      <c r="F51" t="s">
-        <v>140</v>
-      </c>
       <c r="G51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H51" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="D52" s="7">
         <v>3</v>
       </c>
       <c r="E52" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52" t="s">
         <v>141</v>
       </c>
-      <c r="F52" t="s">
-        <v>142</v>
-      </c>
       <c r="G52" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="D53" s="7">
         <v>4</v>
       </c>
       <c r="E53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" t="s">
         <v>143</v>
-      </c>
-      <c r="F53" t="s">
-        <v>144</v>
       </c>
       <c r="G53" t="s">
         <v>74</v>
@@ -2843,11 +3003,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>12</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C54" t="s">
@@ -2860,13 +3020,16 @@
         <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G54" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="D55" s="7">
         <v>2</v>
@@ -2875,7 +3038,7 @@
         <v>88</v>
       </c>
       <c r="F55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G55" t="s">
         <v>74</v>
@@ -2884,7 +3047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="D56" s="7">
         <v>3</v>
@@ -2893,7 +3056,7 @@
         <v>65</v>
       </c>
       <c r="F56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G56" t="s">
         <v>74</v>
@@ -2902,16 +3065,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="D57" s="7">
         <v>4</v>
       </c>
       <c r="E57" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" t="s">
         <v>148</v>
-      </c>
-      <c r="F57" t="s">
-        <v>149</v>
       </c>
       <c r="G57" t="s">
         <v>74</v>
@@ -2920,16 +3083,16 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="D58" s="7">
         <v>5</v>
       </c>
       <c r="E58" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" t="s">
         <v>150</v>
-      </c>
-      <c r="F58" t="s">
-        <v>151</v>
       </c>
       <c r="G58" t="s">
         <v>74</v>
@@ -2938,16 +3101,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="D59" s="7">
         <v>6</v>
       </c>
       <c r="E59" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59" t="s">
         <v>152</v>
-      </c>
-      <c r="F59" t="s">
-        <v>153</v>
       </c>
       <c r="G59" t="s">
         <v>74</v>
@@ -2956,7 +3119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="D60" s="7">
         <v>7</v>
@@ -2965,13 +3128,13 @@
         <v>68</v>
       </c>
       <c r="F60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>13</v>
       </c>
@@ -2988,22 +3151,22 @@
         <v>62</v>
       </c>
       <c r="F61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G61" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="D62" s="7">
         <v>2</v>
       </c>
       <c r="E62" t="s">
+        <v>155</v>
+      </c>
+      <c r="F62" t="s">
         <v>156</v>
-      </c>
-      <c r="F62" t="s">
-        <v>157</v>
       </c>
       <c r="G62" t="s">
         <v>70</v>
@@ -3015,16 +3178,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="D63" s="7">
         <v>3</v>
       </c>
       <c r="E63" t="s">
+        <v>157</v>
+      </c>
+      <c r="F63" t="s">
         <v>158</v>
-      </c>
-      <c r="F63" t="s">
-        <v>159</v>
       </c>
       <c r="G63" t="s">
         <v>70</v>
@@ -3036,16 +3199,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="D64" s="7">
         <v>4</v>
       </c>
       <c r="E64" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" t="s">
         <v>160</v>
-      </c>
-      <c r="F64" t="s">
-        <v>161</v>
       </c>
       <c r="G64" t="s">
         <v>80</v>
@@ -3057,10 +3220,10 @@
         <v>5</v>
       </c>
       <c r="E65" t="s">
+        <v>161</v>
+      </c>
+      <c r="F65" t="s">
         <v>162</v>
-      </c>
-      <c r="F65" t="s">
-        <v>163</v>
       </c>
       <c r="G65" t="s">
         <v>70</v>
@@ -3072,10 +3235,10 @@
         <v>6</v>
       </c>
       <c r="E66" t="s">
+        <v>163</v>
+      </c>
+      <c r="F66" t="s">
         <v>164</v>
-      </c>
-      <c r="F66" t="s">
-        <v>165</v>
       </c>
       <c r="G66" t="s">
         <v>70</v>
@@ -3098,7 +3261,7 @@
         <v>62</v>
       </c>
       <c r="F67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G67" t="s">
         <v>70</v>
@@ -3110,10 +3273,10 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
+        <v>166</v>
+      </c>
+      <c r="F68" t="s">
         <v>167</v>
-      </c>
-      <c r="F68" t="s">
-        <v>168</v>
       </c>
       <c r="G68" t="s">
         <v>70</v>
@@ -3122,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3131,10 +3294,10 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G69" t="s">
         <v>70</v>
@@ -3152,10 +3315,10 @@
         <v>4</v>
       </c>
       <c r="E70" t="s">
+        <v>170</v>
+      </c>
+      <c r="F70" t="s">
         <v>171</v>
-      </c>
-      <c r="F70" t="s">
-        <v>172</v>
       </c>
       <c r="G70" t="s">
         <v>70</v>
@@ -3167,10 +3330,10 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
+        <v>172</v>
+      </c>
+      <c r="F71" t="s">
         <v>173</v>
-      </c>
-      <c r="F71" t="s">
-        <v>174</v>
       </c>
       <c r="G71" t="s">
         <v>80</v>
@@ -3190,13 +3353,13 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
+        <v>174</v>
+      </c>
+      <c r="F72" t="s">
         <v>175</v>
       </c>
-      <c r="F72" t="s">
-        <v>176</v>
-      </c>
       <c r="G72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3208,10 +3371,10 @@
         <v>84</v>
       </c>
       <c r="F73" t="s">
+        <v>176</v>
+      </c>
+      <c r="G73" t="s">
         <v>177</v>
-      </c>
-      <c r="G73" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3220,10 +3383,10 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G74" t="s">
         <v>70</v>
@@ -3235,10 +3398,10 @@
         <v>4</v>
       </c>
       <c r="E75" t="s">
+        <v>179</v>
+      </c>
+      <c r="F75" t="s">
         <v>180</v>
-      </c>
-      <c r="F75" t="s">
-        <v>181</v>
       </c>
       <c r="G75" t="s">
         <v>74</v>
@@ -3264,7 +3427,7 @@
         <v>62</v>
       </c>
       <c r="F76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G76" t="s">
         <v>70</v>
@@ -3276,10 +3439,10 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G77" t="s">
         <v>80</v>
@@ -3291,10 +3454,10 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
+        <v>183</v>
+      </c>
+      <c r="F78" t="s">
         <v>184</v>
-      </c>
-      <c r="F78" t="s">
-        <v>185</v>
       </c>
       <c r="G78" t="s">
         <v>74</v>
@@ -3309,10 +3472,10 @@
         <v>4</v>
       </c>
       <c r="E79" t="s">
+        <v>185</v>
+      </c>
+      <c r="F79" t="s">
         <v>186</v>
-      </c>
-      <c r="F79" t="s">
-        <v>187</v>
       </c>
       <c r="G79" t="s">
         <v>74</v>
@@ -3327,10 +3490,10 @@
         <v>5</v>
       </c>
       <c r="E80" t="s">
+        <v>187</v>
+      </c>
+      <c r="F80" t="s">
         <v>188</v>
-      </c>
-      <c r="F80" t="s">
-        <v>189</v>
       </c>
       <c r="G80" t="s">
         <v>74</v>
@@ -3339,16 +3502,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="D81" s="7">
         <v>6</v>
       </c>
       <c r="E81" t="s">
+        <v>189</v>
+      </c>
+      <c r="F81" t="s">
         <v>190</v>
-      </c>
-      <c r="F81" t="s">
-        <v>191</v>
       </c>
       <c r="G81" t="s">
         <v>74</v>
@@ -3357,16 +3520,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="D82" s="7">
         <v>7</v>
       </c>
       <c r="E82" t="s">
+        <v>191</v>
+      </c>
+      <c r="F82" t="s">
         <v>192</v>
-      </c>
-      <c r="F82" t="s">
-        <v>193</v>
       </c>
       <c r="G82" t="s">
         <v>74</v>
@@ -3375,16 +3538,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="D83" s="7">
         <v>8</v>
       </c>
       <c r="E83" t="s">
+        <v>193</v>
+      </c>
+      <c r="F83" t="s">
         <v>194</v>
-      </c>
-      <c r="F83" t="s">
-        <v>195</v>
       </c>
       <c r="G83" t="s">
         <v>74</v>
@@ -3393,7 +3556,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>17</v>
       </c>
@@ -3410,43 +3573,43 @@
         <v>62</v>
       </c>
       <c r="F84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G84" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="D85" s="7">
         <v>2</v>
       </c>
       <c r="E85" t="s">
+        <v>196</v>
+      </c>
+      <c r="F85" t="s">
         <v>197</v>
-      </c>
-      <c r="F85" t="s">
-        <v>198</v>
       </c>
       <c r="G85" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="D86" s="7">
         <v>3</v>
       </c>
       <c r="E86" t="s">
+        <v>198</v>
+      </c>
+      <c r="F86" t="s">
         <v>199</v>
-      </c>
-      <c r="F86" t="s">
-        <v>200</v>
       </c>
       <c r="G86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>18</v>
       </c>
@@ -3463,13 +3626,13 @@
         <v>62</v>
       </c>
       <c r="F87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G87" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="D88" s="7">
         <v>2</v>
@@ -3478,52 +3641,52 @@
         <v>64</v>
       </c>
       <c r="F88" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G88" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="D89" s="7">
         <v>3</v>
       </c>
       <c r="E89" t="s">
+        <v>202</v>
+      </c>
+      <c r="F89" t="s">
         <v>203</v>
       </c>
-      <c r="F89" t="s">
-        <v>204</v>
-      </c>
       <c r="G89" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="D90" s="7">
         <v>4</v>
       </c>
       <c r="E90" t="s">
+        <v>204</v>
+      </c>
+      <c r="F90" t="s">
         <v>205</v>
       </c>
-      <c r="F90" t="s">
-        <v>206</v>
-      </c>
       <c r="G90" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="D91" s="7">
         <v>5</v>
       </c>
       <c r="E91" t="s">
+        <v>206</v>
+      </c>
+      <c r="F91" t="s">
         <v>207</v>
-      </c>
-      <c r="F91" t="s">
-        <v>208</v>
       </c>
       <c r="G91" t="s">
         <v>74</v>
@@ -3532,12 +3695,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>19</v>
       </c>
-      <c r="B92" t="s">
-        <v>219</v>
+      <c r="B92" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="C92" t="s">
         <v>60</v>
@@ -3549,13 +3712,16 @@
         <v>62</v>
       </c>
       <c r="F92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G92" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K92" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="D93" s="7">
         <v>2</v>
@@ -3564,7 +3730,7 @@
         <v>65</v>
       </c>
       <c r="F93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G93" t="s">
         <v>74</v>
@@ -3573,46 +3739,46 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="D94" s="7">
         <v>3</v>
       </c>
       <c r="E94" t="s">
+        <v>210</v>
+      </c>
+      <c r="F94" t="s">
         <v>211</v>
       </c>
-      <c r="F94" t="s">
-        <v>212</v>
-      </c>
       <c r="G94" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="D95" s="7">
         <v>4</v>
       </c>
       <c r="E95" t="s">
+        <v>212</v>
+      </c>
+      <c r="F95" t="s">
         <v>213</v>
       </c>
-      <c r="F95" t="s">
-        <v>214</v>
-      </c>
       <c r="G95" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C97" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D97" s="7">
         <v>1</v>
@@ -3621,13 +3787,13 @@
         <v>62</v>
       </c>
       <c r="F97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G97" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D98" s="7">
         <v>2</v>
       </c>
@@ -3635,7 +3801,7 @@
         <v>65</v>
       </c>
       <c r="F98" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G98" t="s">
         <v>74</v>
@@ -3644,15 +3810,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>21</v>
       </c>
-      <c r="B100" t="s">
-        <v>228</v>
+      <c r="B100" s="15" t="s">
+        <v>227</v>
       </c>
       <c r="C100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D100" s="7">
         <v>1</v>
@@ -3661,47 +3827,50 @@
         <v>62</v>
       </c>
       <c r="F100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G100" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D101" s="7">
         <v>2</v>
       </c>
       <c r="E101" t="s">
+        <v>233</v>
+      </c>
+      <c r="F101" t="s">
         <v>234</v>
       </c>
-      <c r="F101" t="s">
-        <v>235</v>
-      </c>
       <c r="G101" t="s">
         <v>70</v>
       </c>
       <c r="I101" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J101" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D102" s="7">
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F102" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G102" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D103" s="7">
         <v>4</v>
       </c>
@@ -3709,7 +3878,7 @@
         <v>65</v>
       </c>
       <c r="F103" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G103" t="s">
         <v>74</v>
@@ -3721,6 +3890,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3742,13 +3912,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3756,21 +3926,21 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3778,10 +3948,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3789,10 +3959,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3800,10 +3970,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3811,10 +3981,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/db_structure/00A. System.xlsx
+++ b/db_structure/00A. System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F3B257FD-EC19-4834-85A2-9F4DD03694BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{35E7B34C-C907-43CA-853E-C9A003C18419}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10710" yWindow="-270" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,41 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{F21D8FE2-1F74-43A6-AF49-4003FC13CCB0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+New Submit  problem
+View ID already Exist</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -51,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="281">
   <si>
     <t>Table Master</t>
   </si>
@@ -876,13 +911,31 @@
   </si>
   <si>
     <t>A33</t>
+  </si>
+  <si>
+    <t>a11</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>Cretaed</t>
+  </si>
+  <si>
+    <t>a29</t>
+  </si>
+  <si>
+    <t>a88</t>
+  </si>
+  <si>
+    <t>Rectifiy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,8 +963,27 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -948,6 +1020,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -961,7 +1039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -999,6 +1077,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1336,11 +1416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,6 +1610,12 @@
       <c r="I6" s="2" t="s">
         <v>253</v>
       </c>
+      <c r="J6" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1559,6 +1645,9 @@
       <c r="I7" s="2" t="s">
         <v>258</v>
       </c>
+      <c r="J7" s="16" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1588,6 +1677,9 @@
       <c r="I8" s="2" t="s">
         <v>258</v>
       </c>
+      <c r="J8" s="16" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1739,7 +1831,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
@@ -1832,13 +1924,13 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="2"/>
@@ -1853,13 +1945,13 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1926,6 +2018,12 @@
       <c r="H21" s="2" t="s">
         <v>253</v>
       </c>
+      <c r="J21" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -1976,15 +2074,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,7 +2543,7 @@
       <c r="A25" s="2">
         <v>5</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
@@ -2461,6 +2560,9 @@
       </c>
       <c r="G25" t="s">
         <v>70</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2914,7 +3016,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="D49" s="7">
         <v>4</v>
@@ -2929,7 +3031,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>11</v>
       </c>
@@ -2952,7 +3054,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="D51" s="7">
         <v>2</v>
@@ -2970,7 +3072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="D52" s="7">
         <v>3</v>
@@ -2985,7 +3087,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="D53" s="7">
         <v>4</v>
@@ -3003,7 +3105,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>12</v>
       </c>
@@ -3029,7 +3131,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="D55" s="7">
         <v>2</v>
@@ -3047,7 +3149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="D56" s="7">
         <v>3</v>
@@ -3065,7 +3167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="D57" s="7">
         <v>4</v>
@@ -3083,7 +3185,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="D58" s="7">
         <v>5</v>
@@ -3101,7 +3203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="D59" s="7">
         <v>6</v>
@@ -3119,7 +3221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="D60" s="7">
         <v>7</v>
@@ -3134,11 +3236,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>13</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C61" t="s">
@@ -3156,8 +3258,14 @@
       <c r="G61" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K61" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="L61" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="D62" s="7">
         <v>2</v>
@@ -3178,7 +3286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="D63" s="7">
         <v>3</v>
@@ -3199,7 +3307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="D64" s="7">
         <v>4</v>
@@ -3560,7 +3668,7 @@
       <c r="A84" s="2">
         <v>17</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C84" t="s">
@@ -3774,7 +3882,7 @@
       <c r="A97" s="2">
         <v>20</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="15" t="s">
         <v>226</v>
       </c>
       <c r="C97" t="s">
@@ -3791,6 +3899,9 @@
       </c>
       <c r="G97" t="s">
         <v>70</v>
+      </c>
+      <c r="K97" s="15" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
